--- a/exceltemplate/测试用例.xlsx
+++ b/exceltemplate/测试用例.xlsx
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="G4" s="42" t="n">
-        <v>44142.67666637435</v>
+        <v>44145.68383060076</v>
       </c>
       <c r="H4" s="47" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="G5" s="42" t="n">
-        <v>44142.67706358331</v>
+        <v>44145.68418957023</v>
       </c>
       <c r="H5" s="48" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="K3" s="42" t="n">
-        <v>44142.67658918667</v>
+        <v>44145.68378117152</v>
       </c>
       <c r="L3" s="49" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="K4" s="42" t="n">
-        <v>44142.67661515995</v>
+        <v>44145.68378660941</v>
       </c>
       <c r="L4" s="49" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="42" t="n">
-        <v>44142.67662602988</v>
+        <v>44145.68379071528</v>
       </c>
       <c r="L5" s="49" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="K3" s="42" t="n">
-        <v>44142.6767351368</v>
+        <v>44145.6838916292</v>
       </c>
       <c r="L3" s="49" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="K4" s="42" t="n">
-        <v>44142.67674015971</v>
+        <v>44145.68389784532</v>
       </c>
       <c r="L4" s="49" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="42" t="n">
-        <v>44142.6767442956</v>
+        <v>44145.68390229867</v>
       </c>
       <c r="L5" s="49" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="42" t="n">
-        <v>44142.67676745912</v>
+        <v>44145.68392546765</v>
       </c>
       <c r="L6" s="49" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="J7" s="5" t="n"/>
       <c r="K7" s="45" t="n">
-        <v>44142.67676962009</v>
+        <v>44145.68392697335</v>
       </c>
       <c r="L7" s="50" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="46" t="n">
-        <v>44142.67679278758</v>
+        <v>44145.68395013316</v>
       </c>
       <c r="L8" s="51" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J9" s="11" t="n"/>
       <c r="K9" s="46" t="n">
-        <v>44142.67679622103</v>
+        <v>44145.68395245558</v>
       </c>
       <c r="L9" s="51" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="K10" s="46" t="n">
-        <v>44142.67681208892</v>
+        <v>44145.6839624509</v>
       </c>
       <c r="L10" s="51" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="K11" s="46" t="n">
-        <v>44142.67681896301</v>
+        <v>44145.68396568236</v>
       </c>
       <c r="L11" s="51" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="K12" s="46" t="n">
-        <v>44142.67694654009</v>
+        <v>44145.68409074259</v>
       </c>
       <c r="L12" s="52" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="R12" s="26">
-        <f>HYPERLINK("D:\AutoTest\screenshots\测试\test_login_2\2020-11-07-16-14-47.png", "D:\AutoTest\screenshots\测试\test_login_2\2020-11-07-16-14-47.png")</f>
+        <f>HYPERLINK("D:\AutoTest\screenshots\测试\test_login_2\2020-11-10-16-25-05.png", "D:\AutoTest\screenshots\测试\test_login_2\2020-11-10-16-25-05.png")</f>
         <v/>
       </c>
       <c r="AA12" s="27" t="inlineStr">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="K13" s="46" t="n">
-        <v>44142.67695104625</v>
+        <v>44145.68409362657</v>
       </c>
       <c r="L13" s="51" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="K14" s="46" t="n">
-        <v>44142.67695783926</v>
+        <v>44145.68409731683</v>
       </c>
       <c r="L14" s="51" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="K15" s="46" t="n">
-        <v>44142.67696311699</v>
+        <v>44145.68409993442</v>
       </c>
       <c r="L15" s="51" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="K16" s="46" t="n">
-        <v>44142.67696921409</v>
+        <v>44145.68410224295</v>
       </c>
       <c r="L16" s="51" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="J17" s="11" t="n"/>
       <c r="K17" s="46" t="n">
-        <v>44142.67697100958</v>
+        <v>44145.68410345908</v>
       </c>
       <c r="L17" s="51" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="46" t="n">
-        <v>44142.67699417448</v>
+        <v>44145.68412668577</v>
       </c>
       <c r="L18" s="51" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="J19" s="11" t="n"/>
       <c r="K19" s="46" t="n">
-        <v>44142.67699754241</v>
+        <v>44145.68412868951</v>
       </c>
       <c r="L19" s="51" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="J20" s="11" t="n"/>
       <c r="K20" s="46" t="n">
-        <v>44142.67700160055</v>
+        <v>44145.68413061218</v>
       </c>
       <c r="L20" s="51" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="K21" s="46" t="n">
-        <v>44142.67700556253</v>
+        <v>44145.68413330503</v>
       </c>
       <c r="L21" s="51" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="K22" s="46" t="n">
-        <v>44142.67700912071</v>
+        <v>44145.68413620642</v>
       </c>
       <c r="L22" s="51" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>13236011237</v>
       </c>
       <c r="K23" s="46" t="n">
-        <v>44142.67701188636</v>
+        <v>44145.6841385576</v>
       </c>
       <c r="L23" s="51" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="J24" s="11" t="n"/>
       <c r="K24" s="46" t="n">
-        <v>44142.67701360906</v>
+        <v>44145.68413950757</v>
       </c>
       <c r="L24" s="51" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="46" t="n">
-        <v>44142.67703678434</v>
+        <v>44145.68416267347</v>
       </c>
       <c r="L25" s="51" t="inlineStr">
         <is>
